--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1427966.153196815</v>
+        <v>1435175.574147541</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12426458.88989895</v>
+        <v>12383915.12768902</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859256.4419733182</v>
+        <v>1668379.122709968</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10528923.12553534</v>
+        <v>10238900.27118794</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>65.05556024898621</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>411.5564180673022</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>301.1078080706494</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>123.6508151687552</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6963361812432</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0459473520099</v>
       </c>
       <c r="V2" t="n">
-        <v>208.2085323732922</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.3390595454386</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>92.87660355959267</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.38350873075441</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>134.4512500017999</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>192.0853578582755</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8095098692793</v>
       </c>
       <c r="V3" t="n">
-        <v>25.58784832204209</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.146962668658</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>137.9658481833737</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>101.7333524057098</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>194.7305902107919</v>
       </c>
       <c r="T4" t="n">
-        <v>38.08585087494991</v>
+        <v>220.7653997160724</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>286.2273673601648</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>122.8178581271355</v>
       </c>
       <c r="G5" t="n">
-        <v>212.5869635239643</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>3.361964119315047</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046393</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>134.364635083861</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>117.1539167322975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>65.39790975796676</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>185.5002804203052</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>182.4922801853908</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>116.2801165399324</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542834</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.36893455027482</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>120.5381589265369</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>70.82764119510665</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>84.99782759111503</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>392.3076283661287</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>287.078010026058</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.43352988218109</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.606082249036</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>85.79758598644133</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>5.272976156706264</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>120.8365182023921</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>189.1309449837405</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7612876787265</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6960058828134</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.10303855405861</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>45.95715544461575</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1938489850921</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>63.13355668550155</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081966</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>148.9055307001823</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>247.2395995396726</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>236.0619757395193</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>4.122427055024325</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>248.4439714466091</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.946412518761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>99.46193284122363</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>38.03682829123476</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>5.94317878650419</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>117.8112368377022</v>
       </c>
       <c r="D34" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>30.87238256911574</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>139.7286184012997</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>80.25286948725234</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>39.56681219551418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690.2330699327781</v>
+        <v>1633.383951086739</v>
       </c>
       <c r="C2" t="n">
-        <v>690.2330699327781</v>
+        <v>1567.671263966551</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656001</v>
+        <v>1567.671263966551</v>
       </c>
       <c r="E2" t="n">
-        <v>423.8554133656001</v>
+        <v>1181.883011368306</v>
       </c>
       <c r="F2" t="n">
-        <v>416.9099126163966</v>
+        <v>770.8971065786989</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429522</v>
+        <v>355.1835529753633</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>51.03425189389928</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>51.03425189389928</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>186.5833448456251</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>440.4748159487344</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>792.3513983296846</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>1215.551333031515</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>1650.212893497563</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>2047.316218247473</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>2351.733717752448</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>2532.165835506176</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>2551.712594694964</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>2426.812781393191</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946894</v>
+        <v>2218.028603432339</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946894</v>
+        <v>1964.446838430309</v>
       </c>
       <c r="V2" t="n">
-        <v>690.2330699327781</v>
+        <v>1633.383951086739</v>
       </c>
       <c r="W2" t="n">
-        <v>690.2330699327781</v>
+        <v>1633.383951086739</v>
       </c>
       <c r="X2" t="n">
-        <v>690.2330699327781</v>
+        <v>1633.383951086739</v>
       </c>
       <c r="Y2" t="n">
-        <v>690.2330699327781</v>
+        <v>1633.383951086739</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.8035330399423</v>
+        <v>931.3039783964497</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>756.8509491153227</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>607.9165394540714</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>448.679084448616</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>302.144526475501</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>165.4384057225327</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>71.62365465223708</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>51.03425189389928</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>112.9485160947044</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>478.5051750538281</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>772.2063725109085</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>1134.298685125061</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>1520.383148730554</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>1851.355210008483</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>2412.934542906632</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>2527.661170607794</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>2551.712594694964</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098647</v>
+        <v>2415.903251258802</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413023</v>
+        <v>2221.877637260544</v>
       </c>
       <c r="U3" t="n">
-        <v>709.4101432413023</v>
+        <v>1993.787223251171</v>
       </c>
       <c r="V3" t="n">
-        <v>683.5638318048962</v>
+        <v>1758.635115019429</v>
       </c>
       <c r="W3" t="n">
-        <v>683.5638318048962</v>
+        <v>1504.397758291227</v>
       </c>
       <c r="X3" t="n">
-        <v>683.5638318048962</v>
+        <v>1307.279614181472</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.8035330399423</v>
+        <v>1099.519315416518</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.4381933466805</v>
+        <v>190.3936945033677</v>
       </c>
       <c r="C4" t="n">
-        <v>186.4381933466805</v>
+        <v>51.03425189389928</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>51.03425189389928</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>51.03425189389928</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>51.03425189389928</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>51.03425189389928</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>51.03425189389928</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>51.03425189389928</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>76.22979557399205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>247.4706503191586</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>522.126422833111</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>822.1015484626624</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>1120.378552503969</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>1379.869347753704</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1578.387869281091</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1632.396723408224</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>1529.635761382255</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512193</v>
+        <v>1332.938195512768</v>
       </c>
       <c r="T4" t="n">
-        <v>680.805400811876</v>
+        <v>1109.94284226421</v>
       </c>
       <c r="U4" t="n">
-        <v>414.4277442446979</v>
+        <v>820.8242893751549</v>
       </c>
       <c r="V4" t="n">
-        <v>414.4277442446979</v>
+        <v>820.8242893751549</v>
       </c>
       <c r="W4" t="n">
-        <v>414.4277442446979</v>
+        <v>820.8242893751549</v>
       </c>
       <c r="X4" t="n">
-        <v>186.4381933466805</v>
+        <v>592.8347384771375</v>
       </c>
       <c r="Y4" t="n">
-        <v>186.4381933466805</v>
+        <v>372.0421593336074</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2168.459826904653</v>
+        <v>1412.134398099144</v>
       </c>
       <c r="C5" t="n">
-        <v>1799.497309964241</v>
+        <v>1043.171881158732</v>
       </c>
       <c r="D5" t="n">
-        <v>1441.231611357491</v>
+        <v>1043.171881158732</v>
       </c>
       <c r="E5" t="n">
-        <v>1055.443358759246</v>
+        <v>657.383628560488</v>
       </c>
       <c r="F5" t="n">
-        <v>644.4574539696389</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>429.7231473797759</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.459826904653</v>
+        <v>2188.873570139077</v>
       </c>
       <c r="Y5" t="n">
-        <v>2168.459826904653</v>
+        <v>1798.734238163266</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533.4666540631119</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>359.013624781985</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>210.0792151207337</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>210.0792151207337</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>210.0792151207337</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>73.20322133584961</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>69.80729798300612</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>214.3836900926279</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>371.4749568374567</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L6" t="n">
-        <v>629.0260923974442</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M6" t="n">
-        <v>948.9329878659535</v>
+        <v>1480.485115687207</v>
       </c>
       <c r="N6" t="n">
-        <v>1291.715511860585</v>
+        <v>1867.770244284152</v>
       </c>
       <c r="O6" t="n">
-        <v>1638.786616996056</v>
+        <v>2199.840679460314</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.295032556957</v>
+        <v>2447.023413292611</v>
       </c>
       <c r="Q6" t="n">
-        <v>2154.745546059887</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S6" t="n">
-        <v>2029.495166406371</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>1834.784844880347</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>1606.683255013611</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1371.531146781868</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1117.293790053667</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>909.4422898481339</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>701.68199108318</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311.8231255790122</v>
+        <v>604.3445683049841</v>
       </c>
       <c r="C7" t="n">
-        <v>193.4858359504288</v>
+        <v>435.4083853770773</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809306</v>
+        <v>285.2917459647415</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>285.2917459647415</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>219.2332512597246</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>58.6963092017423</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246705</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728883</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640786</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152952</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271086</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693647</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1486.355378693647</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1486.355378693647</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1486.355378693647</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1486.355378693647</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V7" t="n">
-        <v>1231.67089048776</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="W7" t="n">
-        <v>942.2537204507994</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="X7" t="n">
-        <v>714.2641695527821</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="Y7" t="n">
-        <v>493.4715904092519</v>
+        <v>604.3445683049841</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1101.768613746538</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C8" t="n">
-        <v>1101.768613746538</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>1101.768613746538</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>715.9803611482932</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F8" t="n">
-        <v>304.9944563586857</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,7 +4822,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723851</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="Y8" t="n">
-        <v>1488.368453810659</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800312</v>
@@ -4886,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676483</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>486.3765308040527</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>317.4403478761458</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800312</v>
@@ -4962,16 +4962,16 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>896.0145465323097</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>896.0145465323097</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>668.0249956342924</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>668.0249956342924</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1261.532988317206</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C11" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D11" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943746</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.5851666348717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C13" t="n">
-        <v>657.6489837069648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946291</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E13" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1841.438156582316</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1552.335289707959</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1297.650801502072</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1008.233631465111</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1008.233631465111</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>1008.233631465111</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2294.692414305509</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1925.729897365098</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1567.464198758347</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1181.675946160103</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>770.6900413704955</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>374.4197096875371</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>84.44192178242803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>84.44192178242803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>335.0994200625328</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>761.5085519770223</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1327.408547649577</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1988.750767535187</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2665.408004329383</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3291.020984046489</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3790.466187308251</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4117.355988455315</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>4222.096089121401</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4128.728887220208</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>4128.728887220208</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>4128.728887220208</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V14" t="n">
-        <v>3797.665999876637</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W14" t="n">
-        <v>3444.897344606523</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X14" t="n">
-        <v>3071.431586345443</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y14" t="n">
-        <v>2681.292254369631</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5575801601279</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.104550879001</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1701412177497</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9326862122941</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3981282391791</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.4323885936882</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>89.76816032455557</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>84.44192178242803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>214.9139636252951</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>516.066289140751</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>967.3252964567181</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
-        <v>1092.61093433878</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1667.424224665253</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2171.046291223761</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.914333499374</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.914333499374</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2555.914333499374</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2433.857244406048</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.815885836613</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.774181110627</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.622072878884</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.384716150683</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.53321594515</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.772917180196</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>865.6674881149069</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C16" t="n">
-        <v>696.731305187</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D16" t="n">
-        <v>546.6146657746642</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E16" t="n">
-        <v>398.7015721922711</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F16" t="n">
-        <v>251.8116246943607</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>84.44192178242803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>84.44192178242803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>84.44192178242803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>152.6484119477712</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>394.5694642088822</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>759.6715552029406</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1155.009642160147</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1546.382089455436</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1891.861594484349</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2163.958312236472</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2268.908895574824</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>2194.057341479815</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>2194.057341479815</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>2147.63597234384</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1858.551276399302</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V16" t="n">
-        <v>1603.866788193415</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W16" t="n">
-        <v>1314.449618156454</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X16" t="n">
-        <v>1086.460067258437</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="Y16" t="n">
-        <v>865.6674881149069</v>
+        <v>396.0736748448162</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251935</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128756</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957687</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874793</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021279</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127287</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304025</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070874</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>3075.868852377177</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>92.8116232260805</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779263</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>570.9683475412851</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>1061.700680385036</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
-        <v>1653.719034637164</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2275.8149980365</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2275.8149980365</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.214355784993</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.754398433617</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C19" t="n">
-        <v>846.8182155057104</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D19" t="n">
-        <v>696.7015760933747</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E19" t="n">
-        <v>548.7884825109816</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F19" t="n">
-        <v>401.8985350130712</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876501</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H19" t="n">
-        <v>92.8116232260805</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156343</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861979</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>819.184291169332</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856732</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410167</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368668</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.346239107598</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.66745682198</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U19" t="n">
-        <v>1957.66745682198</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>1702.982968616093</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>1464.536528475165</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X19" t="n">
-        <v>1236.546977577147</v>
+        <v>868.1593398084665</v>
       </c>
       <c r="Y19" t="n">
-        <v>1015.754398433617</v>
+        <v>647.3667606649364</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>1753.263343671912</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1384.300826731501</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1026.03512812475</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872364</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251935</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128754</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.91518802128</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127287</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304025</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070874</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750192</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469742</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126171</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856057</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594977</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2139.863183736034</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>92.8116232260805</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>160.1893859228021</v>
       </c>
       <c r="K21" t="n">
-        <v>242.926066115635</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L21" t="n">
-        <v>733.6583989593863</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M21" t="n">
-        <v>733.6583989593863</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1355.754362358723</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>1902.630837358917</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.214355784993</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>745.0885253246415</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C22" t="n">
-        <v>576.1523423967346</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D22" t="n">
-        <v>426.0357029843989</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E22" t="n">
-        <v>278.1226094020058</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F22" t="n">
-        <v>131.2326619040954</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>131.2326619040954</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213792</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005499</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>2208.69699212455</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U22" t="n">
-        <v>1919.620778439276</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.936290233389</v>
+        <v>1161.740577577774</v>
       </c>
       <c r="W22" t="n">
-        <v>1375.519120196429</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="X22" t="n">
-        <v>1147.529569298411</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="Y22" t="n">
-        <v>926.7369901548813</v>
+        <v>651.5308283972832</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>988.1395539230131</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>819.2033709951062</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>669.0867315827704</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>521.1736380003773</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>374.2836905024669</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>207.0875912173469</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1907.987318831761</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1618.5701487948</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1390.580597896783</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1169.788018753253</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>605.645163642942</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7414,16 +7414,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>183.414641571832</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>265.0304328515159</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>56.27460493020737</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>114.355508901335</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.3555089013354</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>336.3649071132057</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.7347328444707</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>109.0043389868306</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>134.5511216850542</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>17.87885946369357</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>13.23167357738618</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6994665666748</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9363529330115</v>
+        <v>82.87935969080615</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>141.8227719694285</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>86.43436349603083</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>184.0214693750427</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>172.1826382240899</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>162.5760987035356</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>50.29152613729184</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3.755572419229338</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>50.46102259707166</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>221.5872283340128</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>133.4863986256527</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.29152613729264</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>80.37004734071367</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>102.4171615007192</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>161.3036423121237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>49.43558426092564</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>109.4223302771082</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>6.705344245269458</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>86.99395161137549</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>186.142843193523</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>940671.2843363152</v>
+        <v>946489.4764517905</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>944285.4659801758</v>
+        <v>946550.5886845876</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778832.4080198054</v>
+        <v>778832.4080198057</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871395.0735348711</v>
+        <v>778832.4080198056</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914603.6784280189</v>
+        <v>778832.4080198057</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914603.6784280188</v>
+        <v>778832.4080198056</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
+        <v>426246.3737136506</v>
+      </c>
+      <c r="F2" t="n">
         <v>426246.3737136507</v>
       </c>
-      <c r="F2" t="n">
-        <v>477670.0767775762</v>
-      </c>
       <c r="G2" t="n">
-        <v>501674.8572737693</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="H2" t="n">
-        <v>501674.8572737693</v>
+        <v>426246.3737136508</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
@@ -26343,19 +26343,19 @@
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>1111772.422836514</v>
       </c>
       <c r="C3" t="n">
-        <v>308174.1417414033</v>
+        <v>2832.417447465924</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596104</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
-        <v>208781.7516454577</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95052.24834831795</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744854</v>
+        <v>300174.5225695038</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>166910.0725315923</v>
       </c>
       <c r="K3" t="n">
-        <v>71651.52831447145</v>
+        <v>683.7453000595374</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824965</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341477</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
-        <v>54893.66793774206</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25177.21277645518</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253016.7649073352</v>
+        <v>143497.6040399938</v>
       </c>
       <c r="C4" t="n">
-        <v>170569.6528082928</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
         <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
-        <v>12326.17004636718</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="G4" t="n">
-        <v>12380.38756059278</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="H4" t="n">
-        <v>12380.38756059278</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>92728.98522509882</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="F5" t="n">
-        <v>91920.00353567499</v>
-      </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-483001.4425376175</v>
+        <v>-834847.9059364294</v>
       </c>
       <c r="C6" t="n">
-        <v>-50791.77024039108</v>
+        <v>274633.9590101669</v>
       </c>
       <c r="D6" t="n">
-        <v>178062.1936116717</v>
+        <v>277466.3764576328</v>
       </c>
       <c r="E6" t="n">
-        <v>154180.6850748654</v>
+        <v>157309.2554431202</v>
       </c>
       <c r="F6" t="n">
-        <v>163222.9103745723</v>
+        <v>339382.2352603108</v>
       </c>
       <c r="G6" t="n">
-        <v>293641.0428953639</v>
+        <v>339382.2352603106</v>
       </c>
       <c r="H6" t="n">
-        <v>388693.2912436815</v>
+        <v>339382.2352603109</v>
       </c>
       <c r="I6" t="n">
-        <v>379790.8820887228</v>
+        <v>90747.91430558907</v>
       </c>
       <c r="J6" t="n">
-        <v>321610.6411270573</v>
+        <v>224012.3643435003</v>
       </c>
       <c r="K6" t="n">
-        <v>318958.2672317</v>
+        <v>390238.6915750331</v>
       </c>
       <c r="L6" t="n">
-        <v>365687.9563179219</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="M6" t="n">
-        <v>343057.5297527567</v>
+        <v>343370.1710816778</v>
       </c>
       <c r="N6" t="n">
-        <v>335716.1276084294</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="O6" t="n">
-        <v>365432.5827697163</v>
+        <v>390922.4368750928</v>
       </c>
       <c r="P6" t="n">
-        <v>390609.7955461716</v>
+        <v>390922.4368750927</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>931.8969626484114</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1272.667109221546</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716385</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>637.928148673741</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="F4" t="n">
-        <v>1055.52402228035</v>
-      </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>931.8969626484114</v>
       </c>
       <c r="C3" t="n">
-        <v>239.6556507682058</v>
+        <v>2.167929469128012</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985509</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="F3" t="n">
-        <v>182.8904086282478</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85.37393949483953</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93445162528792</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>637.928148673741</v>
       </c>
       <c r="C4" t="n">
-        <v>278.4010767246569</v>
+        <v>2.656683426298287</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387577</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
-        <v>224.1225668780578</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>104.6212680456561</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364211</v>
+        <v>341.306832697356</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>637.9281486737411</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246567</v>
+        <v>2.656683426298287</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387599</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
-        <v>224.1225668780578</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>104.6212680456561</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>637.928148673741</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246569</v>
+        <v>2.656683426298287</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387577</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
-        <v>224.1225668780578</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>104.6212680456561</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>300.2173315220214</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776174</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>66.04590905783149</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>119.5437260968427</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27514,16 +27514,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>207.2127388273832</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>10.62602253481947</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>29.2809729152541</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>166.3105094258141</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>147.2862671062896</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>104.9141609528166</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>185.128495004616</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>284.058187614576</v>
       </c>
       <c r="G5" t="n">
-        <v>199.2837713196625</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27703,16 +27703,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>91.1388491425401</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>-2.245315045001917e-12</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>50.09290436633029</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>80.02313826496449</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>226.0474223526488</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>203.7456584706628</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>32.33535647827999</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193759</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30203,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>3.746319447832807</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>38.36699404511774</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>144.4299805125744</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>317.9641802355</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>476.5458824622628</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>591.1973062638762</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>657.8209147442728</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>668.4651448754279</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>631.2126808660404</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>538.7254194976679</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>404.5603542721553</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>235.3297390149278</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>85.36925441749017</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>16.39951338288812</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.2997055558266245</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>2.004457617772055</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>19.3588406769038</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>69.01312412066066</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>189.3772874755607</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>323.6759478662884</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>435.2222559991473</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>507.8838446433842</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>521.3260187555486</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>476.9114578564941</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>382.7634901866655</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>255.8672566124469</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>124.4522019174615</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>37.23192110203792</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>8.079370836546131</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.13187221169553</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.680469932644676</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>14.94090540114995</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>50.53631397444173</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>118.8092242379786</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>195.240052174536</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>249.8400479861004</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>263.4213004417468</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>257.1577306927987</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>237.5267864796312</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>203.2451998536797</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>140.7164413599101</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>75.56003897145969</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>29.28600782618039</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>7.180189712209069</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.09166199632607336</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.116249685312743</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>52.39679208970914</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>197.2442159930197</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>434.2352967288128</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>650.8061459081014</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>807.3825722149915</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>898.3686775561719</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>912.9052219745668</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>862.0305141662382</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>735.7231000600797</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.4974082048169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>321.3836192950269</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>116.5865397040643</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>22.39638299745654</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4092999748250194</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.737434914174646</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>26.43785825005514</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>94.24940384329373</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>258.627567922088</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>442.0357071717892</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>594.3715588869117</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M15" t="n">
-        <v>268.6851832978386</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>711.9611972615892</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>651.3054025843509</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>522.7300056725252</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>50.84665290144569</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.03378371108113</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.180094402248332</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.29497347564541</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>20.40440053801102</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>69.01611143122746</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>162.2546247281305</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>266.6341910795304</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>341.1999656427731</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>359.7475240050346</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>351.1935319594475</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>324.3840690848623</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>277.5666101816957</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>192.1727334924534</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>103.1903528231109</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>39.99512866192955</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>9.805795759575842</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1251803713988407</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377424</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122281</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830429</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364261</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293306</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229606</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>919.857844208695</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687522</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148605</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540904</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735817</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848223</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745723</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M18" t="n">
-        <v>740.13237155043</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927636</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>180.8424455441211</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862159</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291842</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284924</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273332</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900885</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416873</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282423</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851327</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>221.4611312026452</v>
       </c>
       <c r="K21" t="n">
-        <v>140.3328138609332</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>136.9182757088137</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>256.4560314172822</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>355.4308912938889</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>427.4746815170001</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>439.052081278837</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>401.1144694443536</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>307.4924237423983</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>182.2546643977059</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>19.74420120079563</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.53966080889401</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>369.2491504637614</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>296.6678762192731</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>365.7498107213659</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>389.9843066722153</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>334.3152134120497</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>567.2518514122723</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>115.8854825264254</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.29436776481836</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.45004412130582</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>172.9705603486531</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>277.4300732464165</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>303.0051774035874</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>301.2899030720273</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>262.1119143936709</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>200.5237591185731</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>54.55439810821575</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>172.7419126813483</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>631.9617651335565</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>350.5768738742134</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>304.4954681847781</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348409</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231598</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971897</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900911</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212425</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735793</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748827</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349593</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>481.2868411833756</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.83623123219</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>253.1893922021266</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>430.7162948631208</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>571.6161572450042</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>668.0224443288992</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>683.4921583779758</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>631.9323027445514</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>504.4901043048101</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>330.1917183303674</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7980814808948</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>131.7899412554213</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>304.1942681974302</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>455.8171791070375</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M15" t="n">
-        <v>126.5511493758203</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>580.6194851782559</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>508.7091581399064</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>388.7555982581949</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.89544461145772</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>244.3646992536475</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>368.7899909030892</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>399.3314009668752</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>395.325704338676</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>348.969196998902</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>274.8451694465892</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.010690240759</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380623</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664388</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020579</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263696</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870083</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134826</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.254733440411</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>127.357360784584</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.139375506915</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104633</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946981</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094304</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>46.86803812979091</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426736</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066046</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642056</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243779</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209159</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>94.6235045359785</v>
       </c>
       <c r="K21" t="n">
-        <v>2.491374886574249</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
